--- a/školy-zdroj.xlsx
+++ b/školy-zdroj.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/226e3371a49bebd4/Dokumenty/MFVS stuff/Erasmus-visual-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{789A5E4B-8246-46DC-BA16-EE18A01BE36A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="585">
   <si>
     <t>interniNazevSmlouvy</t>
   </si>
@@ -2134,9 +2135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ56" sqref="AZ3:AZ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13154,4 +13155,458 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46B0622-EB2B-42B1-8BE0-CA78E40C2073}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B54">
+    <sortCondition ref="A1:A54"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/školy-zdroj.xlsx
+++ b/školy-zdroj.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/226e3371a49bebd4/Dokumenty/MFVS stuff/Erasmus-visual-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{789A5E4B-8246-46DC-BA16-EE18A01BE36A}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63660588-42C1-4189-B5C6-ED27C8489479}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$3:$L$56</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1868,6 +1871,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2133,11 +2140,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BZ56"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ56" sqref="AZ3:AZ56"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2731,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>112</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>134</v>
       </c>
@@ -3313,7 +3321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>153</v>
       </c>
@@ -3717,7 +3725,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>164</v>
       </c>
@@ -3907,7 +3915,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>170</v>
       </c>
@@ -4103,7 +4111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>180</v>
       </c>
@@ -4299,7 +4307,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>190</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>210</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>220</v>
       </c>
@@ -5085,7 +5093,7 @@
       </c>
       <c r="BZ15" s="4"/>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>228</v>
       </c>
@@ -5275,7 +5283,7 @@
       </c>
       <c r="BZ16" s="4"/>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>235</v>
       </c>
@@ -5475,7 +5483,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>244</v>
       </c>
@@ -5669,7 +5677,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>254</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>261</v>
       </c>
@@ -6057,7 +6065,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>267</v>
       </c>
@@ -6249,7 +6257,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>278</v>
       </c>
@@ -6449,7 +6457,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>287</v>
       </c>
@@ -6647,7 +6655,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>294</v>
       </c>
@@ -7241,7 +7249,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>320</v>
       </c>
@@ -7449,7 +7457,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>335</v>
       </c>
@@ -7651,7 +7659,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>345</v>
       </c>
@@ -7853,7 +7861,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>357</v>
       </c>
@@ -8051,7 +8059,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>367</v>
       </c>
@@ -8245,7 +8253,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>376</v>
       </c>
@@ -8437,7 +8445,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>383</v>
       </c>
@@ -9023,7 +9031,7 @@
       </c>
       <c r="BZ35" s="4"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>404</v>
       </c>
@@ -9207,7 +9215,7 @@
       </c>
       <c r="BZ36" s="4"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>408</v>
       </c>
@@ -9407,7 +9415,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>418</v>
       </c>
@@ -9607,7 +9615,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>427</v>
       </c>
@@ -9801,7 +9809,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>437</v>
       </c>
@@ -9999,7 +10007,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>445</v>
       </c>
@@ -10203,7 +10211,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>456</v>
       </c>
@@ -10399,7 +10407,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>467</v>
       </c>
@@ -10591,7 +10599,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>476</v>
       </c>
@@ -10787,7 +10795,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>483</v>
       </c>
@@ -10987,7 +10995,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>489</v>
       </c>
@@ -11185,7 +11193,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>500</v>
       </c>
@@ -11383,7 +11391,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>508</v>
       </c>
@@ -11575,7 +11583,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>514</v>
       </c>
@@ -11771,7 +11779,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>521</v>
       </c>
@@ -11979,7 +11987,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>533</v>
       </c>
@@ -12175,7 +12183,7 @@
       </c>
       <c r="BZ51" s="4"/>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>542</v>
       </c>
@@ -12367,7 +12375,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>548</v>
       </c>
@@ -12569,7 +12577,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>555</v>
       </c>
@@ -12759,7 +12767,7 @@
       </c>
       <c r="BZ54" s="4"/>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>456</v>
       </c>
@@ -12945,7 +12953,7 @@
       </c>
       <c r="BZ55" s="4"/>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>568</v>
       </c>
@@ -13148,6 +13156,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:L56" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="BG ROUSSE01"/>
+        <filter val="E  JAEN01"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19230769230769229" right="0.19230769230769229" top="0.38461538461538458" bottom="0.57692307692307687" header="0.30769230769230771" footer="0.30769230769230771"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -13161,7 +13177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46B0622-EB2B-42B1-8BE0-CA78E40C2073}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/školy-zdroj.xlsx
+++ b/školy-zdroj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/226e3371a49bebd4/Dokumenty/MFVS stuff/Erasmus-visual-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63660588-42C1-4189-B5C6-ED27C8489479}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A6A056-1CE6-49A0-982A-8E38F3478840}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -2140,11 +2140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BZ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -2731,34 +2730,38 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>305</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="3" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="4"/>
+        <v>315</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2927,36 +2930,34 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>583</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -3129,30 +3130,38 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>346</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>347</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="J6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="4"/>
+        <v>351</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -3321,32 +3330,32 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>358</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>359</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>145</v>
+        <v>361</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
-        <v>146</v>
+        <v>362</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3527,36 +3536,34 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>437</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>439</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>440</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>157</v>
+        <v>441</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
-        <v>158</v>
+        <v>442</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -3725,28 +3732,30 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>580</v>
+        <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3915,33 +3924,35 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>170</v>
+        <v>445</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>446</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>447</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>173</v>
+        <v>448</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>176</v>
+        <v>451</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>177</v>
+        <v>452</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -4111,34 +4122,34 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>185</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K11" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -4307,34 +4318,34 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -4511,30 +4522,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -4705,30 +4718,32 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>213</v>
+        <v>396</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>214</v>
+        <v>387</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4903,32 +4918,32 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>220</v>
+        <v>402</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>221</v>
+        <v>394</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>222</v>
+        <v>395</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>223</v>
+        <v>396</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>194</v>
+        <v>387</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
-        <v>225</v>
+        <v>398</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>226</v>
+        <v>399</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -5093,32 +5108,32 @@
       </c>
       <c r="BZ15" s="4"/>
     </row>
-    <row r="16" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>228</v>
+        <v>383</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>229</v>
+        <v>384</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>231</v>
+        <v>386</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>194</v>
+        <v>387</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="3" t="s">
-        <v>116</v>
+        <v>389</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -5283,34 +5298,28 @@
       </c>
       <c r="BZ16" s="4"/>
     </row>
-    <row r="17" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>236</v>
+        <v>405</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
-        <v>239</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -5483,30 +5492,32 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>245</v>
+        <v>336</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>248</v>
+        <v>339</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -5677,30 +5688,36 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>255</v>
+        <v>579</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="J19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K19" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -5873,28 +5890,28 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="3" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -6065,28 +6082,28 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>268</v>
+        <v>581</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -6257,35 +6274,43 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="G22" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+        <v>325</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="J22" s="3" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="L22" s="4"/>
+        <v>329</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -6457,34 +6482,36 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>582</v>
+        <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K23" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -6655,32 +6682,34 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>295</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K24" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -6855,30 +6884,30 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>583</v>
+        <v>409</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>303</v>
+        <v>410</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>306</v>
+        <v>413</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>307</v>
+        <v>414</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -7051,36 +7080,32 @@
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>311</v>
+        <v>418</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>583</v>
+        <v>419</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>303</v>
+        <v>420</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>304</v>
+        <v>421</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>312</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="3" t="s">
-        <v>314</v>
+        <v>423</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>316</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -7249,43 +7274,35 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>323</v>
+        <v>430</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>324</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>326</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="3" t="s">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3" t="s">
         <v>95</v>
@@ -7457,34 +7474,36 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>335</v>
+        <v>568</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>336</v>
+        <v>569</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>337</v>
+        <v>570</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>338</v>
+        <v>571</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>339</v>
+        <v>572</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>340</v>
+        <v>573</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K28" s="4"/>
+        <v>574</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -7659,38 +7678,30 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>346</v>
+        <v>255</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>350</v>
-      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>352</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -7861,32 +7872,30 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>357</v>
+        <v>210</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>358</v>
+        <v>211</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>359</v>
+        <v>212</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="3" t="s">
-        <v>363</v>
+        <v>216</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -8059,34 +8068,30 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>371</v>
-      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>373</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -8253,27 +8258,35 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>378</v>
+        <v>535</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>379</v>
+        <v>536</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -8445,32 +8458,32 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>383</v>
+        <v>548</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>384</v>
+        <v>549</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>385</v>
+        <v>550</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="3" t="s">
-        <v>388</v>
+        <v>551</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
-        <v>389</v>
+        <v>552</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>390</v>
+        <v>553</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -8643,32 +8656,32 @@
     </row>
     <row r="34" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>396</v>
+        <v>281</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>397</v>
+        <v>282</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="K34" s="4"/>
+        <v>283</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -8841,30 +8854,30 @@
     </row>
     <row r="35" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>402</v>
+        <v>555</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>394</v>
+        <v>556</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>395</v>
+        <v>557</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>396</v>
+        <v>558</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="3" t="s">
-        <v>397</v>
+        <v>559</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="3" t="s">
-        <v>398</v>
+        <v>560</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>399</v>
+        <v>561</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -9031,21 +9044,21 @@
       </c>
       <c r="BZ35" s="4"/>
     </row>
-    <row r="36" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -9215,32 +9228,32 @@
       </c>
       <c r="BZ36" s="4"/>
     </row>
-    <row r="37" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>408</v>
+        <v>287</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>409</v>
+        <v>582</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>411</v>
+        <v>289</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="3" t="s">
-        <v>413</v>
+        <v>290</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>414</v>
+        <v>291</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>415</v>
+        <v>292</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -9415,32 +9428,28 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="3" t="s">
-        <v>422</v>
-      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="3" t="s">
-        <v>423</v>
-      </c>
+      <c r="I38" s="4"/>
       <c r="J38" s="3" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -9615,32 +9624,32 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="3" t="s">
-        <v>432</v>
+        <v>116</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -9809,32 +9818,28 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>194</v>
+        <v>471</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="3" t="s">
-        <v>441</v>
-      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="I40" s="4"/>
       <c r="J40" s="3" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -10007,37 +10012,43 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>524</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="G41" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H41" s="4"/>
+        <v>526</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="I41" s="3" t="s">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="L41" s="4"/>
+        <v>529</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -10211,33 +10222,27 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>457</v>
+        <v>377</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>459</v>
+        <v>379</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="3" t="s">
-        <v>460</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>462</v>
-      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -10407,28 +10412,30 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="3" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -10599,28 +10606,28 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>471</v>
+        <v>248</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="3" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -10795,32 +10802,30 @@
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>471</v>
+        <v>248</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="I45" s="4"/>
       <c r="J45" s="3" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -10995,30 +11000,30 @@
         <v>488</v>
       </c>
     </row>
-    <row r="46" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>489</v>
+        <v>294</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>491</v>
+        <v>296</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>492</v>
+        <v>297</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>493</v>
+        <v>248</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
-        <v>494</v>
+        <v>298</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="3" t="s">
-        <v>495</v>
+        <v>299</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -11193,30 +11198,30 @@
         <v>499</v>
       </c>
     </row>
-    <row r="47" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>501</v>
+        <v>245</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>502</v>
+        <v>246</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>503</v>
+        <v>247</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>248</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3" t="s">
-        <v>504</v>
+        <v>249</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="3" t="s">
-        <v>505</v>
+        <v>250</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -11391,28 +11396,32 @@
         <v>507</v>
       </c>
     </row>
-    <row r="48" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>248</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="J48" s="3" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -11583,32 +11592,32 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="3" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -11779,43 +11788,31 @@
         <v>520</v>
       </c>
     </row>
-    <row r="50" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>225</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="3" t="s">
         <v>95</v>
@@ -11987,34 +11984,32 @@
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>533</v>
+        <v>112</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>535</v>
+        <v>113</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>536</v>
+        <v>114</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>538</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="3" t="s">
-        <v>539</v>
+        <v>116</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>540</v>
+        <v>117</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -12183,27 +12178,29 @@
       </c>
       <c r="BZ51" s="4"/>
     </row>
-    <row r="52" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>542</v>
+        <v>134</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>543</v>
+        <v>135</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>544</v>
+        <v>136</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>545</v>
+        <v>137</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -12375,32 +12372,32 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>548</v>
+        <v>180</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>549</v>
+        <v>181</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>550</v>
+        <v>182</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="3" t="s">
-        <v>552</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="4"/>
       <c r="J53" s="3" t="s">
-        <v>553</v>
+        <v>186</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -12577,32 +12574,32 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>555</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>556</v>
+        <v>142</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>557</v>
+        <v>143</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>558</v>
+        <v>144</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="3" t="s">
-        <v>559</v>
+        <v>145</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="3" t="s">
-        <v>560</v>
+        <v>146</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>561</v>
+        <v>147</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -12767,30 +12764,34 @@
       </c>
       <c r="BZ54" s="4"/>
     </row>
-    <row r="55" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>456</v>
+        <v>235</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>563</v>
+        <v>236</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>564</v>
+        <v>237</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>565</v>
+        <v>238</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="K55" s="4"/>
+        <v>240</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -12953,35 +12954,33 @@
       </c>
       <c r="BZ55" s="4"/>
     </row>
-    <row r="56" spans="1:78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>568</v>
+        <v>367</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>569</v>
+        <v>368</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>570</v>
+        <v>369</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>571</v>
+        <v>370</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
-        <v>573</v>
+        <v>371</v>
       </c>
       <c r="H56" s="4"/>
-      <c r="I56" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="I56" s="4"/>
       <c r="J56" s="3" t="s">
-        <v>574</v>
+        <v>372</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>575</v>
+        <v>373</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -13157,12 +13156,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:L56" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="BG ROUSSE01"/>
-        <filter val="E  JAEN01"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L56">
+      <sortCondition ref="A3:A56"/>
+    </sortState>
   </autoFilter>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19230769230769229" right="0.19230769230769229" top="0.38461538461538458" bottom="0.57692307692307687" header="0.30769230769230771" footer="0.30769230769230771"/>

--- a/školy-zdroj.xlsx
+++ b/školy-zdroj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/226e3371a49bebd4/Dokumenty/MFVS stuff/Erasmus-visual-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A6A056-1CE6-49A0-982A-8E38F3478840}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{3DB4F494-DF07-4BAF-AFF9-B552957E4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5291E229-31D3-4BE2-A8B2-4A3A2D1F2252}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="588">
   <si>
     <t>interniNazevSmlouvy</t>
   </si>
@@ -1779,6 +1779,15 @@
   </si>
   <si>
     <t>Univerzita Svätého Cyrila a Metóda</t>
+  </si>
+  <si>
+    <t>D  DORTMUN01, PRF</t>
+  </si>
+  <si>
+    <t>HR SPLIT01, PRF</t>
+  </si>
+  <si>
+    <t>RS NOVISAD02, PRF</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1880,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2143,8 +2148,8 @@
   <dimension ref="A1:BZ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3132,7 +3137,7 @@
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>345</v>
+        <v>585</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>346</v>
@@ -6276,7 +6281,7 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>320</v>
+        <v>586</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>321</v>
@@ -10014,7 +10019,7 @@
     </row>
     <row r="41" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>522</v>
